--- a/qasite/media/question-import-format.xlsx
+++ b/qasite/media/question-import-format.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Question</t>
   </si>
   <si>
     <t>Topic</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
   <si>
     <t>Correct</t>
@@ -50,6 +53,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -154,10 +158,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -175,7 +179,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -186,6 +190,9 @@
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
